--- a/file/geo.xlsx
+++ b/file/geo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\CFPS\geo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\KWL\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC463C4-6091-4A7C-AB24-08BB17388132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED23E489-37B2-4DA7-A95A-A2604E38E366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2415" yWindow="750" windowWidth="22425" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30326,13 +30326,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF21" sqref="AF21"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33255,7 +33256,7 @@
         <v>5298</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>11</v>
       </c>
@@ -33343,7 +33344,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>12</v>
       </c>
@@ -33431,7 +33432,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>13</v>
       </c>
@@ -33519,7 +33520,7 @@
         <v>5285</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>14</v>
       </c>
@@ -33610,7 +33611,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>15</v>
       </c>
@@ -33698,7 +33699,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>21</v>
       </c>
@@ -33786,7 +33787,7 @@
         <v>5984</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>22</v>
       </c>
@@ -33874,7 +33875,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>23</v>
       </c>
@@ -33962,7 +33963,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>31</v>
       </c>
@@ -34053,7 +34054,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>32</v>
       </c>
@@ -34144,7 +34145,7 @@
         <v>13517</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>33</v>
       </c>
@@ -34235,7 +34236,7 @@
         <v>19270</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>34</v>
       </c>
@@ -34326,7 +34327,7 @@
         <v>18076</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>35</v>
       </c>
@@ -34417,7 +34418,7 @@
         <v>9942</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>36</v>
       </c>
@@ -34508,7 +34509,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>37</v>
       </c>
@@ -34599,7 +34600,7 @@
         <v>13275</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>41</v>
       </c>
@@ -34687,7 +34688,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>42</v>
       </c>
@@ -34775,7 +34776,7 @@
         <v>6009</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>43</v>
       </c>
@@ -34866,7 +34867,7 @@
         <v>8748</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>44</v>
       </c>
@@ -34954,7 +34955,7 @@
         <v>25720</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>45</v>
       </c>
@@ -35042,7 +35043,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>46</v>
       </c>
@@ -35130,7 +35131,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -35218,7 +35219,7 @@
         <v>5791</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>51</v>
       </c>
@@ -35306,7 +35307,7 @@
         <v>10024</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>52</v>
       </c>
@@ -35394,7 +35395,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>53</v>
       </c>
@@ -35482,7 +35483,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>54</v>
       </c>
@@ -35570,7 +35571,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>61</v>
       </c>
@@ -35658,7 +35659,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>62</v>
       </c>
@@ -35746,7 +35747,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>63</v>
       </c>
@@ -35834,7 +35835,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>64</v>
       </c>
@@ -35922,7 +35923,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>65</v>
       </c>
@@ -36010,7 +36011,7 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>11</v>
       </c>
@@ -36098,7 +36099,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>12</v>
       </c>
@@ -36186,7 +36187,7 @@
         <v>5322</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>13</v>
       </c>
@@ -36274,7 +36275,7 @@
         <v>5009</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>14</v>
       </c>
@@ -36362,7 +36363,7 @@
         <v>5121</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>15</v>
       </c>
@@ -36450,7 +36451,7 @@
         <v>3406</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>21</v>
       </c>
@@ -36538,7 +36539,7 @@
         <v>5650</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>22</v>
       </c>
@@ -36626,7 +36627,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>23</v>
       </c>
@@ -36714,7 +36715,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>31</v>
       </c>
@@ -36802,7 +36803,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>32</v>
       </c>
@@ -36890,7 +36891,7 @@
         <v>13187</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>33</v>
       </c>
@@ -36978,7 +36979,7 @@
         <v>17135</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>34</v>
       </c>
@@ -37066,7 +37067,7 @@
         <v>16077</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>35</v>
       </c>
@@ -37154,7 +37155,7 @@
         <v>8684</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>36</v>
       </c>
@@ -37242,7 +37243,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>37</v>
       </c>
@@ -37330,7 +37331,7 @@
         <v>13570</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>41</v>
       </c>
@@ -37418,7 +37419,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>42</v>
       </c>
@@ -37506,7 +37507,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>43</v>
       </c>
@@ -37594,7 +37595,7 @@
         <v>8542</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>44</v>
       </c>
@@ -37682,7 +37683,7 @@
         <v>26445</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>45</v>
       </c>
@@ -37770,7 +37771,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>46</v>
       </c>
@@ -37858,7 +37859,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>50</v>
       </c>
@@ -37946,7 +37947,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>51</v>
       </c>
@@ -38034,7 +38035,7 @@
         <v>9193</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>52</v>
       </c>
@@ -38122,7 +38123,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>53</v>
       </c>
@@ -38210,7 +38211,7 @@
         <v>5725</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>54</v>
       </c>
@@ -38298,7 +38299,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>61</v>
       </c>
@@ -38386,7 +38387,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>62</v>
       </c>
@@ -38474,7 +38475,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>63</v>
       </c>
@@ -38562,7 +38563,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>64</v>
       </c>
@@ -38650,7 +38651,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>65</v>
       </c>
@@ -38738,7 +38739,7 @@
         <v>5010</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>11</v>
       </c>
@@ -38826,7 +38827,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>12</v>
       </c>
@@ -38914,7 +38915,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>13</v>
       </c>
@@ -39002,7 +39003,7 @@
         <v>4919</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>14</v>
       </c>
@@ -39090,7 +39091,7 @@
         <v>5088</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>15</v>
       </c>
@@ -39178,7 +39179,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>21</v>
       </c>
@@ -39266,7 +39267,7 @@
         <v>4878</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>22</v>
       </c>
@@ -39354,7 +39355,7 @@
         <v>5564</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>23</v>
       </c>
@@ -39442,7 +39443,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>31</v>
       </c>
@@ -39530,7 +39531,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>32</v>
       </c>
@@ -39618,7 +39619,7 @@
         <v>13299</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>33</v>
       </c>
@@ -39706,7 +39707,7 @@
         <v>14791</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>34</v>
       </c>
@@ -39794,7 +39795,7 @@
         <v>12933</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>35</v>
       </c>
@@ -39882,7 +39883,7 @@
         <v>8867</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>36</v>
       </c>
@@ -39970,7 +39971,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>37</v>
       </c>
@@ -40058,7 +40059,7 @@
         <v>13163</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>41</v>
       </c>
@@ -40146,7 +40147,7 @@
         <v>5825</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>42</v>
       </c>
@@ -40234,7 +40235,7 @@
         <v>16908</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>43</v>
       </c>
@@ -40322,7 +40323,7 @@
         <v>7359</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>44</v>
       </c>
@@ -40410,7 +40411,7 @@
         <v>24773</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>45</v>
       </c>
@@ -40498,7 +40499,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>46</v>
       </c>
@@ -40586,7 +40587,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>50</v>
       </c>
@@ -40674,7 +40675,7 @@
         <v>4724</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>51</v>
       </c>
@@ -40762,7 +40763,7 @@
         <v>7527</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>52</v>
       </c>
@@ -40850,7 +40851,7 @@
         <v>12579</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>53</v>
       </c>
@@ -40938,7 +40939,7 @@
         <v>5375</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>54</v>
       </c>
@@ -41026,7 +41027,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>61</v>
       </c>
@@ -41114,7 +41115,7 @@
         <v>5914</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>62</v>
       </c>
@@ -41202,7 +41203,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>63</v>
       </c>
@@ -41290,7 +41291,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>64</v>
       </c>
@@ -41378,7 +41379,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>65</v>
       </c>
@@ -41466,7 +41467,7 @@
         <v>5049</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11</v>
       </c>
@@ -41554,7 +41555,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>12</v>
       </c>
@@ -41642,7 +41643,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>13</v>
       </c>
@@ -41730,7 +41731,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>14</v>
       </c>
@@ -41818,7 +41819,7 @@
         <v>7636</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>15</v>
       </c>
@@ -41906,7 +41907,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>21</v>
       </c>
@@ -41994,7 +41995,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>22</v>
       </c>
@@ -42082,7 +42083,7 @@
         <v>4895</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>23</v>
       </c>
@@ -42170,7 +42171,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>31</v>
       </c>
@@ -42258,7 +42259,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>32</v>
       </c>
@@ -42346,7 +42347,7 @@
         <v>12978</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>33</v>
       </c>
@@ -42434,7 +42435,7 @@
         <v>12565</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>34</v>
       </c>
@@ -42522,7 +42523,7 @@
         <v>10928</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>35</v>
       </c>
@@ -42610,7 +42611,7 @@
         <v>9668</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>36</v>
       </c>
@@ -42698,7 +42699,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>37</v>
       </c>
@@ -42786,7 +42787,7 @@
         <v>13226</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>41</v>
       </c>
@@ -42874,7 +42875,7 @@
         <v>19059</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>42</v>
       </c>
@@ -42962,7 +42963,7 @@
         <v>19207</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>43</v>
       </c>
@@ -43050,7 +43051,7 @@
         <v>4618</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>44</v>
       </c>
@@ -43138,7 +43139,7 @@
         <v>24133</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>45</v>
       </c>
@@ -43226,7 +43227,7 @@
         <v>17034</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>46</v>
       </c>
@@ -43314,7 +43315,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>50</v>
       </c>
@@ -43402,7 +43403,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>51</v>
       </c>
@@ -43490,7 +43491,7 @@
         <v>8804</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>52</v>
       </c>
@@ -43578,7 +43579,7 @@
         <v>12199</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>53</v>
       </c>
@@ -43666,7 +43667,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>54</v>
       </c>
@@ -43754,7 +43755,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>61</v>
       </c>
@@ -43842,7 +43843,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>62</v>
       </c>
@@ -43930,7 +43931,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>63</v>
       </c>
@@ -44018,7 +44019,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>64</v>
       </c>
@@ -44106,7 +44107,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>65</v>
       </c>
@@ -44194,7 +44195,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11</v>
       </c>
@@ -44281,7 +44282,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>12</v>
       </c>
@@ -44368,7 +44369,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>13</v>
       </c>
@@ -44455,7 +44456,7 @@
         <v>4871</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>14</v>
       </c>
@@ -44542,7 +44543,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15</v>
       </c>
@@ -44629,7 +44630,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21</v>
       </c>
@@ -44716,7 +44717,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>22</v>
       </c>
@@ -44803,7 +44804,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>23</v>
       </c>
@@ -44890,7 +44891,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>31</v>
       </c>
@@ -44977,7 +44978,7 @@
         <v>6552</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>32</v>
       </c>
@@ -45064,7 +45065,7 @@
         <v>4567</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>33</v>
       </c>
@@ -45151,7 +45152,7 @@
         <v>9204</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>34</v>
       </c>
@@ -45238,7 +45239,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>35</v>
       </c>
@@ -45325,7 +45326,7 @@
         <v>4942</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>36</v>
       </c>
@@ -45412,7 +45413,7 @@
         <v>10503</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>37</v>
       </c>
@@ -45499,7 +45500,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>41</v>
       </c>
@@ -45586,7 +45587,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>42</v>
       </c>
@@ -45673,7 +45674,7 @@
         <v>10747</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>43</v>
       </c>
@@ -45760,7 +45761,7 @@
         <v>11066</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>44</v>
       </c>
@@ -45847,7 +45848,7 @@
         <v>9412</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>45</v>
       </c>
@@ -45934,7 +45935,7 @@
         <v>9752</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>46</v>
       </c>
@@ -46021,7 +46022,7 @@
         <v>5535</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>50</v>
       </c>
@@ -46108,7 +46109,7 @@
         <v>12566</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>51</v>
       </c>
@@ -46195,7 +46196,7 @@
         <v>12257</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>52</v>
       </c>
@@ -46282,7 +46283,7 @@
         <v>23052</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>53</v>
       </c>
@@ -46369,7 +46370,7 @@
         <v>6462</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>54</v>
       </c>
@@ -46456,7 +46457,7 @@
         <v>25414</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>61</v>
       </c>
@@ -46543,7 +46544,7 @@
         <v>18336</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>62</v>
       </c>
@@ -46630,7 +46631,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>63</v>
       </c>
@@ -46717,7 +46718,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>64</v>
       </c>
@@ -46804,7 +46805,7 @@
         <v>9334</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>65</v>
       </c>
@@ -46891,7 +46892,7 @@
         <v>13963</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>11</v>
       </c>
@@ -46979,7 +46980,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>12</v>
       </c>
@@ -47067,7 +47068,7 @@
         <v>6562</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>13</v>
       </c>
@@ -47155,7 +47156,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>14</v>
       </c>
@@ -47243,7 +47244,7 @@
         <v>7015</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>15</v>
       </c>
@@ -47331,7 +47332,7 @@
         <v>3359</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>21</v>
       </c>
@@ -47419,7 +47420,7 @@
         <v>4934</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>22</v>
       </c>
@@ -47507,7 +47508,7 @@
         <v>7541</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>23</v>
       </c>
@@ -47595,7 +47596,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>31</v>
       </c>
@@ -47683,7 +47684,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>32</v>
       </c>
@@ -47771,7 +47772,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>33</v>
       </c>
@@ -47859,7 +47860,7 @@
         <v>10812</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>34</v>
       </c>
@@ -47947,7 +47948,7 @@
         <v>8712</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>35</v>
       </c>
@@ -48035,7 +48036,7 @@
         <v>7645</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>36</v>
       </c>
@@ -48123,7 +48124,7 @@
         <v>3842</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>37</v>
       </c>
@@ -48211,7 +48212,7 @@
         <v>12404</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>41</v>
       </c>
@@ -48299,7 +48300,7 @@
         <v>23568</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>42</v>
       </c>
@@ -48387,7 +48388,7 @@
         <v>30164</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>43</v>
       </c>
@@ -48475,7 +48476,7 @@
         <v>11879</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>44</v>
       </c>
@@ -48563,7 +48564,7 @@
         <v>25353</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>45</v>
       </c>
@@ -48651,7 +48652,7 @@
         <v>16185</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>46</v>
       </c>
@@ -48739,7 +48740,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>50</v>
       </c>
@@ -48827,7 +48828,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>51</v>
       </c>
@@ -48915,7 +48916,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>52</v>
       </c>
@@ -49003,7 +49004,7 @@
         <v>14554</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>53</v>
       </c>
@@ -49091,7 +49092,7 @@
         <v>6307</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>54</v>
       </c>
@@ -49179,7 +49180,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>61</v>
       </c>
@@ -49267,7 +49268,7 @@
         <v>4413</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>62</v>
       </c>
@@ -49355,7 +49356,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>63</v>
       </c>
@@ -49443,7 +49444,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>64</v>
       </c>
@@ -49531,7 +49532,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>65</v>
       </c>
@@ -49620,7 +49621,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ218" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AJ218" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2010"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
